--- a/src/main/java/com/testData/TestData.xlsx
+++ b/src/main/java/com/testData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenabler\SelenablerFramework-baseline-SelenablerWithJira_New\src\main\java\com\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Domain\3_Office_Training\SelenablerFramework\Selenium-hands-on\src\main\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E302AE6-EAE8-4750-B047-4FAC9E8BEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAFF99-6E3D-4CBA-A464-FCCE7C359806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,47 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
-  <si>
-    <t>noOfRecords</t>
-  </si>
-  <si>
-    <t>genders</t>
-  </si>
-  <si>
-    <t>prefixs</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Male,Female,Others</t>
-  </si>
-  <si>
-    <t>Mr,Mrs,Miss,Dr,Prof</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>lengthofchars</t>
-  </si>
-  <si>
-    <t>nric</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>EOF</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>@hotma1l.net</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -107,16 +71,55 @@
     <t>Country</t>
   </si>
   <si>
-    <t>MobileNoLimit</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>swa@gmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Swaraaz@567</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Swaraj</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Purekar</t>
+  </si>
+  <si>
+    <t>InvalidBday</t>
+  </si>
+  <si>
+    <t>InvalidBmonth</t>
+  </si>
+  <si>
+    <t>InvalidByear</t>
+  </si>
+  <si>
+    <t>ValidBday</t>
+  </si>
+  <si>
+    <t>ValidBmonth</t>
+  </si>
+  <si>
+    <t>ValidByear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,10 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,80 +441,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B10">
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
@@ -525,80 +546,80 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
@@ -611,89 +632,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BD5B0-8EE8-4D8E-A1FB-4E1F0C71D7AE}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testData/TestData.xlsx
+++ b/src/main/java/com/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Domain\3_Office_Training\SelenablerFramework\Selenium-hands-on\src\main\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAFF99-6E3D-4CBA-A464-FCCE7C359806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB92990C-ED5B-4586-86B1-7CB3E0E96919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +490,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/main/java/com/testData/TestData.xlsx
+++ b/src/main/java/com/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D6B3E6C5-AE9C-48E7-9730-9620C13E322F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE418CD4-85DB-4E4A-B3AF-2758FD6C47B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="2020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11000" windowHeight="5650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Columns" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L5"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>EOF</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>DOB_validyear</t>
+  </si>
+  <si>
+    <t>No. of records</t>
   </si>
 </sst>
 </file>
@@ -444,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,7 +494,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -628,15 +631,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BD5B0-8EE8-4D8E-A1FB-4E1F0C71D7AE}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
@@ -645,90 +648,25 @@
     <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAEA833F-7298-416B-AB6E-9E17948E6FF5}">
-          <x14:formula1>
-            <xm:f>DropdownNames!$A$1:$A$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:J1 K1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/main/java/com/testData/TestData.xlsx
+++ b/src/main/java/com/testData/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Domain\3_Office_Training\SelenablerFramework\Selenium-hands-on\src\main\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB92990C-ED5B-4586-86B1-7CB3E0E96919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68238CB-200F-4CE1-A2FC-9496185E5370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DropdownNames" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Columns" sheetId="4" r:id="rId3"/>
+    <sheet name="mankind" sheetId="5" r:id="rId3"/>
+    <sheet name="Columns" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>EOF</t>
   </si>
@@ -111,6 +112,18 @@
   </si>
   <si>
     <t>ValidByear</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>Mobileno</t>
+  </si>
+  <si>
+    <t>Swaraj Purekar</t>
+  </si>
+  <si>
+    <t>Suraj@12345</t>
   </si>
 </sst>
 </file>
@@ -120,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +143,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,17 +173,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -629,6 +653,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A321AFA0-7385-4D56-96E6-05B7F168EAC2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>1234567890</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F2F966E9-EF68-4A75-95FE-70CF36AD4F44}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{AC773DAF-C173-4E57-8786-3464E30A394A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BD5B0-8EE8-4D8E-A1FB-4E1F0C71D7AE}">
   <dimension ref="A1:K2"/>
   <sheetViews>
